--- a/resources/experiment 1/predictions/single/RandomForestRegressor/LY.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/LY.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.56818625919529</v>
+        <v>37.56304128944311</v>
       </c>
       <c r="B2" t="n">
-        <v>32.07913300848006</v>
+        <v>32.11715364383557</v>
       </c>
       <c r="C2" t="n">
-        <v>41.72262110829088</v>
+        <v>42.07352515068488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30.38981885506902</v>
+        <v>30.36987052300136</v>
       </c>
       <c r="B3" t="n">
-        <v>28.52883100656661</v>
+        <v>28.57669621917803</v>
       </c>
       <c r="C3" t="n">
-        <v>32.11606108180034</v>
+        <v>32.08004942465744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30.28855240063344</v>
+        <v>30.28320883254955</v>
       </c>
       <c r="B4" t="n">
-        <v>28.35579041361162</v>
+        <v>28.3451558356164</v>
       </c>
       <c r="C4" t="n">
-        <v>32.10203714898882</v>
+        <v>32.11361326027391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37.03743837369732</v>
+        <v>36.99410115286576</v>
       </c>
       <c r="B5" t="n">
-        <v>34.34498920091321</v>
+        <v>34.44114356164381</v>
       </c>
       <c r="C5" t="n">
-        <v>39.33968732420096</v>
+        <v>39.36474706849311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39.18026300289517</v>
+        <v>39.16227929394123</v>
       </c>
       <c r="B6" t="n">
-        <v>35.23180629223733</v>
+        <v>35.17983572602729</v>
       </c>
       <c r="C6" t="n">
-        <v>42.48642878309382</v>
+        <v>42.74264186301368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32.01842010813056</v>
+        <v>32.0363216667348</v>
       </c>
       <c r="B7" t="n">
-        <v>28.40451940273969</v>
+        <v>28.35816613698627</v>
       </c>
       <c r="C7" t="n">
-        <v>35.04431952143173</v>
+        <v>35.11472328767122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27.43932361308516</v>
+        <v>27.47084941484352</v>
       </c>
       <c r="B8" t="n">
-        <v>22.30315231232872</v>
+        <v>22.29652372602735</v>
       </c>
       <c r="C8" t="n">
-        <v>31.17052702584197</v>
+        <v>31.15838334246568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36.206425388807</v>
+        <v>36.21657615048041</v>
       </c>
       <c r="B9" t="n">
-        <v>33.22296168664753</v>
+        <v>33.12124142465746</v>
       </c>
       <c r="C9" t="n">
-        <v>39.1228912208543</v>
+        <v>39.07976021917801</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30.11018018586059</v>
+        <v>30.08999138608322</v>
       </c>
       <c r="B10" t="n">
-        <v>24.00752750202212</v>
+        <v>24.07460964383555</v>
       </c>
       <c r="C10" t="n">
-        <v>34.33534497928238</v>
+        <v>34.18231605479445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36.81550477823878</v>
+        <v>36.79637967259583</v>
       </c>
       <c r="B11" t="n">
-        <v>30.67294935342461</v>
+        <v>30.53580087671227</v>
       </c>
       <c r="C11" t="n">
-        <v>41.70318064557375</v>
+        <v>41.56254465753423</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43.72791845788986</v>
+        <v>43.76599467157354</v>
       </c>
       <c r="B12" t="n">
-        <v>38.36919925479451</v>
+        <v>38.40078761643834</v>
       </c>
       <c r="C12" t="n">
-        <v>48.47922796484585</v>
+        <v>48.56167747945197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>38.07903526507032</v>
+        <v>38.08646146854762</v>
       </c>
       <c r="B13" t="n">
-        <v>30.38168226286648</v>
+        <v>30.34447331506848</v>
       </c>
       <c r="C13" t="n">
-        <v>44.50028975090567</v>
+        <v>44.28607671232874</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>36.21157727081764</v>
+        <v>36.20138445961961</v>
       </c>
       <c r="B14" t="n">
-        <v>29.38184621061095</v>
+        <v>29.52346641095885</v>
       </c>
       <c r="C14" t="n">
-        <v>41.52602786900577</v>
+        <v>41.18519945205468</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>42.97594524609888</v>
+        <v>42.93926871941659</v>
       </c>
       <c r="B15" t="n">
-        <v>39.32218593883449</v>
+        <v>39.3509731506849</v>
       </c>
       <c r="C15" t="n">
-        <v>45.90566513242</v>
+        <v>46.32031956164374</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39.1797437125251</v>
+        <v>39.142818505827</v>
       </c>
       <c r="B16" t="n">
-        <v>35.11636283105012</v>
+        <v>35.09621523287661</v>
       </c>
       <c r="C16" t="n">
-        <v>42.89019553885625</v>
+        <v>42.77007353424656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43.6374862670632</v>
+        <v>43.63463079288479</v>
       </c>
       <c r="B17" t="n">
-        <v>38.49623326392691</v>
+        <v>38.6511619726027</v>
       </c>
       <c r="C17" t="n">
-        <v>48.5681025192143</v>
+        <v>48.23861720547938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>30.28936436979221</v>
+        <v>30.31836509834386</v>
       </c>
       <c r="B18" t="n">
-        <v>28.50481761422045</v>
+        <v>28.48670816438354</v>
       </c>
       <c r="C18" t="n">
-        <v>32.23478067975636</v>
+        <v>32.21231813698626</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>41.85707018737659</v>
+        <v>41.88252955005785</v>
       </c>
       <c r="B19" t="n">
-        <v>34.37415975603388</v>
+        <v>34.13340635616434</v>
       </c>
       <c r="C19" t="n">
-        <v>47.97566489723297</v>
+        <v>48.08768438356152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>44.66237822820398</v>
+        <v>44.6162161575682</v>
       </c>
       <c r="B20" t="n">
-        <v>40.11264824553162</v>
+        <v>40.10430783561642</v>
       </c>
       <c r="C20" t="n">
-        <v>48.84909407650937</v>
+        <v>48.83132558904105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>42.50261744426687</v>
+        <v>42.43928982921003</v>
       </c>
       <c r="B21" t="n">
-        <v>38.80825901933024</v>
+        <v>38.77055408219173</v>
       </c>
       <c r="C21" t="n">
-        <v>45.95086984477779</v>
+        <v>45.79736953424652</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>32.96749836706594</v>
+        <v>33.00854988673064</v>
       </c>
       <c r="B22" t="n">
-        <v>26.59752947344678</v>
+        <v>26.4028152328767</v>
       </c>
       <c r="C22" t="n">
-        <v>37.99787719521626</v>
+        <v>38.15221775342455</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>45.84265157241189</v>
+        <v>45.78763098698283</v>
       </c>
       <c r="B23" t="n">
-        <v>41.61995750684923</v>
+        <v>41.64478794520539</v>
       </c>
       <c r="C23" t="n">
-        <v>49.82264544292237</v>
+        <v>49.9160224657534</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>39.1797437125251</v>
+        <v>39.15162879520206</v>
       </c>
       <c r="B24" t="n">
-        <v>35.11904031050217</v>
+        <v>35.09889271232866</v>
       </c>
       <c r="C24" t="n">
-        <v>42.84016264266143</v>
+        <v>42.77087243835614</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>33.11895572440813</v>
+        <v>33.11637412826276</v>
       </c>
       <c r="B25" t="n">
-        <v>30.57109926618825</v>
+        <v>30.50114421917804</v>
       </c>
       <c r="C25" t="n">
-        <v>35.45099453532643</v>
+        <v>35.4084942465753</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>42.6116850748848</v>
+        <v>42.6744052515504</v>
       </c>
       <c r="B26" t="n">
-        <v>38.96806790517499</v>
+        <v>38.87428142465749</v>
       </c>
       <c r="C26" t="n">
-        <v>45.99379703112265</v>
+        <v>45.97480021917809</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43.19204906498226</v>
+        <v>43.14935079615618</v>
       </c>
       <c r="B27" t="n">
-        <v>32.13202518983567</v>
+        <v>32.86801501369857</v>
       </c>
       <c r="C27" t="n">
-        <v>51.21399363161555</v>
+        <v>51.13303342465749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>34.94738052994971</v>
+        <v>34.9328945317249</v>
       </c>
       <c r="B28" t="n">
-        <v>30.83435612437481</v>
+        <v>30.89325304109582</v>
       </c>
       <c r="C28" t="n">
-        <v>38.54230297838649</v>
+        <v>38.62350290410945</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>48.55597811744013</v>
+        <v>48.57379132992568</v>
       </c>
       <c r="B29" t="n">
-        <v>44.1019225603391</v>
+        <v>44.38861917808209</v>
       </c>
       <c r="C29" t="n">
-        <v>53.16868525418558</v>
+        <v>53.11317621917806</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>40.94964662437252</v>
+        <v>40.96985111047498</v>
       </c>
       <c r="B30" t="n">
-        <v>36.18605044774941</v>
+        <v>35.90994575342452</v>
       </c>
       <c r="C30" t="n">
-        <v>45.53571987852425</v>
+        <v>45.57575813698629</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33.76059481719577</v>
+        <v>33.75950747141002</v>
       </c>
       <c r="B31" t="n">
-        <v>27.99231158417044</v>
+        <v>28.2785675616438</v>
       </c>
       <c r="C31" t="n">
-        <v>38.54934853481182</v>
+        <v>38.55127221917793</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30.35803226333243</v>
+        <v>30.28050722715186</v>
       </c>
       <c r="B32" t="n">
-        <v>24.50142141800387</v>
+        <v>24.38587550684927</v>
       </c>
       <c r="C32" t="n">
-        <v>34.79626566088275</v>
+        <v>34.53141610958904</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36.19580426465796</v>
+        <v>36.20762052858982</v>
       </c>
       <c r="B33" t="n">
-        <v>29.23152646631872</v>
+        <v>29.26436821917803</v>
       </c>
       <c r="C33" t="n">
-        <v>41.52489008531366</v>
+        <v>41.45359978082178</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>45.03781611192431</v>
+        <v>44.81506114032575</v>
       </c>
       <c r="B34" t="n">
-        <v>37.42860652420086</v>
+        <v>37.12384931506844</v>
       </c>
       <c r="C34" t="n">
-        <v>51.71926651817054</v>
+        <v>51.48673326027392</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>41.73625956573886</v>
+        <v>41.71100182430304</v>
       </c>
       <c r="B35" t="n">
-        <v>37.80217804359641</v>
+        <v>37.72018060273972</v>
       </c>
       <c r="C35" t="n">
-        <v>45.46966180189895</v>
+        <v>45.33229819178073</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>31.97435146523087</v>
+        <v>31.96467435153001</v>
       </c>
       <c r="B36" t="n">
-        <v>28.40532455342462</v>
+        <v>28.43794739726023</v>
       </c>
       <c r="C36" t="n">
-        <v>35.07604448413642</v>
+        <v>35.24627002739723</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>45.50490272213742</v>
+        <v>45.50130494322902</v>
       </c>
       <c r="B37" t="n">
-        <v>41.27440684931497</v>
+        <v>41.30420591780812</v>
       </c>
       <c r="C37" t="n">
-        <v>49.6678776200913</v>
+        <v>49.65190663013693</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.00613927671085</v>
+        <v>40.94360446752533</v>
       </c>
       <c r="B38" t="n">
-        <v>33.28190991957932</v>
+        <v>33.30478246575339</v>
       </c>
       <c r="C38" t="n">
-        <v>48.12293856813794</v>
+        <v>47.22014191780815</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>46.14124687883405</v>
+        <v>46.26958336754578</v>
       </c>
       <c r="B39" t="n">
-        <v>40.54137309589036</v>
+        <v>40.58491243835611</v>
       </c>
       <c r="C39" t="n">
-        <v>52.02042079834744</v>
+        <v>52.00030071232878</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>36.71538241206939</v>
+        <v>36.77379066857483</v>
       </c>
       <c r="B40" t="n">
-        <v>33.86438051089363</v>
+        <v>33.91590432876706</v>
       </c>
       <c r="C40" t="n">
-        <v>39.33763661773769</v>
+        <v>39.3744484383561</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>28.98201529827117</v>
+        <v>28.9842249683091</v>
       </c>
       <c r="B41" t="n">
-        <v>25.82572273789953</v>
+        <v>25.79612876712326</v>
       </c>
       <c r="C41" t="n">
-        <v>31.50176998515104</v>
+        <v>31.495992</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>39.29124607996173</v>
+        <v>39.32503115436511</v>
       </c>
       <c r="B42" t="n">
-        <v>32.90841464931506</v>
+        <v>33.00649972602739</v>
       </c>
       <c r="C42" t="n">
-        <v>44.82055335979403</v>
+        <v>44.82599134246574</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>40.95887145528644</v>
+        <v>40.9661333851291</v>
       </c>
       <c r="B43" t="n">
-        <v>36.14853570802339</v>
+        <v>35.91302158904095</v>
       </c>
       <c r="C43" t="n">
-        <v>45.49952837045727</v>
+        <v>45.5734072328767</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>28.42948768852939</v>
+        <v>28.40893171294208</v>
       </c>
       <c r="B44" t="n">
-        <v>24.83234247305927</v>
+        <v>24.8797594520547</v>
       </c>
       <c r="C44" t="n">
-        <v>31.17915052812138</v>
+        <v>31.44568821917805</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44.37689659122386</v>
+        <v>44.51430322033659</v>
       </c>
       <c r="B45" t="n">
-        <v>35.77325971324195</v>
+        <v>36.07128602739721</v>
       </c>
       <c r="C45" t="n">
-        <v>51.21599782416465</v>
+        <v>51.03455846575334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>30.81382854679513</v>
+        <v>30.82816501710622</v>
       </c>
       <c r="B46" t="n">
-        <v>25.60152206575341</v>
+        <v>25.68411210958903</v>
       </c>
       <c r="C46" t="n">
-        <v>34.55046225638587</v>
+        <v>34.48812394520544</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>35.59756446287818</v>
+        <v>35.60537002657935</v>
       </c>
       <c r="B47" t="n">
-        <v>28.24327470695997</v>
+        <v>28.19327616438353</v>
       </c>
       <c r="C47" t="n">
-        <v>41.28899379099797</v>
+        <v>41.15177599999996</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43.74448451391111</v>
+        <v>43.73690427806163</v>
       </c>
       <c r="B48" t="n">
-        <v>38.43443499908674</v>
+        <v>38.39168767123286</v>
       </c>
       <c r="C48" t="n">
-        <v>48.78374360008692</v>
+        <v>48.56750224657526</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>33.47647670982422</v>
+        <v>33.43695984025077</v>
       </c>
       <c r="B49" t="n">
-        <v>31.32368021317675</v>
+        <v>31.08203616438359</v>
       </c>
       <c r="C49" t="n">
-        <v>35.84797733598729</v>
+        <v>35.63702279452048</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>45.41051700492439</v>
+        <v>45.43307539398893</v>
       </c>
       <c r="B50" t="n">
-        <v>41.10933743378987</v>
+        <v>41.21732065753415</v>
       </c>
       <c r="C50" t="n">
-        <v>49.58991013150683</v>
+        <v>49.55390827397254</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>30.38348401033378</v>
+        <v>30.3753930604511</v>
       </c>
       <c r="B51" t="n">
-        <v>28.48554024857573</v>
+        <v>28.56044175342461</v>
       </c>
       <c r="C51" t="n">
-        <v>32.06456376638391</v>
+        <v>32.06223353424647</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27.93089292298254</v>
+        <v>27.90763703564365</v>
       </c>
       <c r="B52" t="n">
-        <v>23.7813712926288</v>
+        <v>23.78172032876708</v>
       </c>
       <c r="C52" t="n">
-        <v>31.08427003694873</v>
+        <v>31.25129906849314</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>46.37566503680219</v>
+        <v>46.57995674504183</v>
       </c>
       <c r="B53" t="n">
-        <v>40.6982970958904</v>
+        <v>40.72196745205479</v>
       </c>
       <c r="C53" t="n">
-        <v>51.84198937916937</v>
+        <v>51.77609501369862</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43.00964514228917</v>
+        <v>43.00318512097046</v>
       </c>
       <c r="B54" t="n">
-        <v>39.4007619717112</v>
+        <v>39.41326882191778</v>
       </c>
       <c r="C54" t="n">
-        <v>46.27228644325568</v>
+        <v>46.4283373150684</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>42.57965619331093</v>
+        <v>42.54377718476108</v>
       </c>
       <c r="B55" t="n">
-        <v>38.89700534809738</v>
+        <v>38.92118334246573</v>
       </c>
       <c r="C55" t="n">
-        <v>46.06946756410809</v>
+        <v>46.24362586301367</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>33.66128749858464</v>
+        <v>33.64603444476246</v>
       </c>
       <c r="B56" t="n">
-        <v>27.95264543412992</v>
+        <v>28.02655167123286</v>
       </c>
       <c r="C56" t="n">
-        <v>38.27828798477925</v>
+        <v>38.04612756164372</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>30.35758706575866</v>
+        <v>30.28924247256861</v>
       </c>
       <c r="B57" t="n">
-        <v>24.50142141800387</v>
+        <v>24.46318816438351</v>
       </c>
       <c r="C57" t="n">
-        <v>34.33198051289656</v>
+        <v>34.41601523287671</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>45.53873876711801</v>
+        <v>45.53232098630132</v>
       </c>
       <c r="B58" t="n">
-        <v>41.25106672146109</v>
+        <v>41.33108843835606</v>
       </c>
       <c r="C58" t="n">
-        <v>49.56323181735153</v>
+        <v>49.63432471232873</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>34.05836582282492</v>
+        <v>34.06499597083069</v>
       </c>
       <c r="B59" t="n">
-        <v>28.77830487397256</v>
+        <v>28.73592131506847</v>
       </c>
       <c r="C59" t="n">
-        <v>38.65382435211989</v>
+        <v>38.76474860273963</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>45.72022132706327</v>
+        <v>45.68932970980708</v>
       </c>
       <c r="B60" t="n">
-        <v>41.48720520547937</v>
+        <v>41.51344043835607</v>
       </c>
       <c r="C60" t="n">
-        <v>49.83470004931505</v>
+        <v>49.81773128767119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>38.69682596835439</v>
+        <v>38.71496092360111</v>
       </c>
       <c r="B61" t="n">
-        <v>31.6181348709552</v>
+        <v>31.69943386301366</v>
       </c>
       <c r="C61" t="n">
-        <v>44.65990870028684</v>
+        <v>44.7121695342465</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>36.81550477823878</v>
+        <v>36.79637967259583</v>
       </c>
       <c r="B62" t="n">
-        <v>30.63941021187209</v>
+        <v>30.53580087671227</v>
       </c>
       <c r="C62" t="n">
-        <v>41.68020551964783</v>
+        <v>41.56254465753423</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43.71529035741079</v>
+        <v>43.70055842486193</v>
       </c>
       <c r="B63" t="n">
-        <v>34.41578063666011</v>
+        <v>34.21935539726022</v>
       </c>
       <c r="C63" t="n">
-        <v>51.24928476992086</v>
+        <v>51.4612361643834</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>45.72159314196139</v>
+        <v>45.7033376165746</v>
       </c>
       <c r="B64" t="n">
-        <v>41.54014938812777</v>
+        <v>41.5422271780821</v>
       </c>
       <c r="C64" t="n">
-        <v>49.8319295652968</v>
+        <v>49.84310926027392</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>27.49594359591274</v>
+        <v>27.43408228664888</v>
       </c>
       <c r="B65" t="n">
-        <v>22.55825271911283</v>
+        <v>22.40959298630138</v>
       </c>
       <c r="C65" t="n">
-        <v>30.91036743226105</v>
+        <v>30.84290104109581</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>42.70366141047397</v>
+        <v>42.71383984951941</v>
       </c>
       <c r="B66" t="n">
-        <v>36.26667761435086</v>
+        <v>36.03078739726016</v>
       </c>
       <c r="C66" t="n">
-        <v>48.31600265186474</v>
+        <v>48.45456010958897</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>40.00554636492236</v>
+        <v>40.00936840673341</v>
       </c>
       <c r="B67" t="n">
-        <v>34.5900862284409</v>
+        <v>34.44760449315063</v>
       </c>
       <c r="C67" t="n">
-        <v>45.12678384704153</v>
+        <v>45.13529315068484</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>39.6260760377487</v>
+        <v>39.62826058420222</v>
       </c>
       <c r="B68" t="n">
-        <v>36.34291098073484</v>
+        <v>36.39744810958894</v>
       </c>
       <c r="C68" t="n">
-        <v>43.2089945568602</v>
+        <v>43.21659769863006</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>35.50669608043762</v>
+        <v>35.44327503196344</v>
       </c>
       <c r="B69" t="n">
-        <v>27.83261077690008</v>
+        <v>27.66789764383558</v>
       </c>
       <c r="C69" t="n">
-        <v>41.3398700221774</v>
+        <v>41.30260493150685</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>36.67739930316704</v>
+        <v>36.66425107176436</v>
       </c>
       <c r="B70" t="n">
-        <v>33.9064171775603</v>
+        <v>33.85814224657532</v>
       </c>
       <c r="C70" t="n">
-        <v>39.31267478760069</v>
+        <v>39.31424065753421</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>29.50356240341662</v>
+        <v>29.50806388441347</v>
       </c>
       <c r="B71" t="n">
-        <v>27.16999123652967</v>
+        <v>27.16761106849316</v>
       </c>
       <c r="C71" t="n">
-        <v>31.60618419966256</v>
+        <v>31.54658805479446</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>35.59887026268579</v>
+        <v>35.536729207115</v>
       </c>
       <c r="B72" t="n">
-        <v>31.77913014664052</v>
+        <v>31.67840701369857</v>
       </c>
       <c r="C72" t="n">
-        <v>38.85310686636221</v>
+        <v>38.79207123287664</v>
       </c>
     </row>
   </sheetData>
